--- a/Lab3truthtables.xlsx
+++ b/Lab3truthtables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chapar\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5538448D-457B-474F-9AEB-ABDBDFC1D981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C63208-E7DE-4F9F-A42D-51C186C93B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{B865E0CC-345F-4404-96EC-E27D76AA4AF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B865E0CC-345F-4404-96EC-E27D76AA4AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
   <si>
     <t>Binary</t>
   </si>
@@ -122,6 +122,48 @@
   <si>
     <t>sw0</t>
   </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>AB\C</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>SOP = AC + AC + B</t>
+  </si>
+  <si>
+    <t>SOP = A+BC+BC</t>
+  </si>
+  <si>
+    <t>SOP=A+C+ B C</t>
+  </si>
+  <si>
+    <t>SOP=A C+AB+B C+A B C</t>
+  </si>
+  <si>
+    <t>SOP=A C+ B C</t>
+  </si>
+  <si>
+    <t>SOP=B C +A C+A B</t>
+  </si>
+  <si>
+    <t>SOP=A B+A B+ A C</t>
+  </si>
 </sst>
 </file>
 
@@ -150,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -173,15 +215,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,6 +282,3461 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42849367-07FA-4759-BD83-0FCE177E6E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="4610100"/>
+          <a:ext cx="1028700" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A32B38-7849-4FA0-9ED8-309B6A3FCC30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="4391025"/>
+          <a:ext cx="533400" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6FA5D0-E090-4D65-920E-2977BFA16B4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="4772025"/>
+          <a:ext cx="504825" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40E099B-69B6-4A48-ACD1-F6AFFC33C6FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="3838575"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>140368</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235618</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1751AB5A-F71D-4518-8612-6FD62910B2AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1975184" y="3840079"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25066</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F931284A-875A-45DB-989B-A241F2B03DD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1604210" y="5359066"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>137359</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>232609</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37097</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07FDF415-26B0-4BEF-A438-EA8C3F7E9323}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1972175" y="5371097"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>249653</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>29076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>344903</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>29076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD857FE-3A93-4323-AC43-9BCC256C0446}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2084469" y="5363076"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>210552</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50132</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle: Rounded Corners 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60F0D26-9648-429D-AA0E-8083F9EDCC02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1433763" y="5915526"/>
+          <a:ext cx="1062790" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270710</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>5013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30079</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle: Rounded Corners 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866A48A6-6B8F-4125-B01C-26671578D95D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105526" y="6101013"/>
+          <a:ext cx="370974" cy="375987"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401052</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>5013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45683</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>185487</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Freeform: Shape 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9EB3FF3-86FE-4ACB-8780-8D9FA15FBBA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1624263" y="5910513"/>
+          <a:ext cx="256236" cy="180474"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 256236"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 180474"/>
+            <a:gd name="connsiteX1" fmla="*/ 5013 w 256236"/>
+            <a:gd name="connsiteY1" fmla="*/ 50132 h 180474"/>
+            <a:gd name="connsiteX2" fmla="*/ 20053 w 256236"/>
+            <a:gd name="connsiteY2" fmla="*/ 105276 h 180474"/>
+            <a:gd name="connsiteX3" fmla="*/ 30079 w 256236"/>
+            <a:gd name="connsiteY3" fmla="*/ 125329 h 180474"/>
+            <a:gd name="connsiteX4" fmla="*/ 70184 w 256236"/>
+            <a:gd name="connsiteY4" fmla="*/ 160421 h 180474"/>
+            <a:gd name="connsiteX5" fmla="*/ 115303 w 256236"/>
+            <a:gd name="connsiteY5" fmla="*/ 180474 h 180474"/>
+            <a:gd name="connsiteX6" fmla="*/ 205540 w 256236"/>
+            <a:gd name="connsiteY6" fmla="*/ 175461 h 180474"/>
+            <a:gd name="connsiteX7" fmla="*/ 220579 w 256236"/>
+            <a:gd name="connsiteY7" fmla="*/ 170448 h 180474"/>
+            <a:gd name="connsiteX8" fmla="*/ 235619 w 256236"/>
+            <a:gd name="connsiteY8" fmla="*/ 150395 h 180474"/>
+            <a:gd name="connsiteX9" fmla="*/ 245645 w 256236"/>
+            <a:gd name="connsiteY9" fmla="*/ 120316 h 180474"/>
+            <a:gd name="connsiteX10" fmla="*/ 255671 w 256236"/>
+            <a:gd name="connsiteY10" fmla="*/ 80211 h 180474"/>
+            <a:gd name="connsiteX11" fmla="*/ 255671 w 256236"/>
+            <a:gd name="connsiteY11" fmla="*/ 0 h 180474"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="256236" h="180474">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1671" y="16711"/>
+                <a:pt x="2794" y="33485"/>
+                <a:pt x="5013" y="50132"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7531" y="69016"/>
+                <a:pt x="12997" y="87636"/>
+                <a:pt x="20053" y="105276"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="22829" y="112215"/>
+                <a:pt x="25735" y="119248"/>
+                <a:pt x="30079" y="125329"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="36667" y="134553"/>
+                <a:pt x="63755" y="156135"/>
+                <a:pt x="70184" y="160421"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="80726" y="167449"/>
+                <a:pt x="104443" y="176130"/>
+                <a:pt x="115303" y="180474"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="145382" y="178803"/>
+                <a:pt x="175550" y="178317"/>
+                <a:pt x="205540" y="175461"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="210800" y="174960"/>
+                <a:pt x="216520" y="173831"/>
+                <a:pt x="220579" y="170448"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="226998" y="165099"/>
+                <a:pt x="230606" y="157079"/>
+                <a:pt x="235619" y="150395"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="245645" y="120316"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="250017" y="107199"/>
+                <a:pt x="254999" y="94324"/>
+                <a:pt x="255671" y="80211"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="256943" y="53504"/>
+                <a:pt x="255671" y="26737"/>
+                <a:pt x="255671" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>325855</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>55168</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15039</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Freeform: Shape 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E436BC-1661-42B4-A1D1-B17B286FC327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1549066" y="6466974"/>
+          <a:ext cx="340918" cy="215565"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 340918"/>
+            <a:gd name="connsiteY0" fmla="*/ 215565 h 215565"/>
+            <a:gd name="connsiteX1" fmla="*/ 15039 w 340918"/>
+            <a:gd name="connsiteY1" fmla="*/ 125329 h 215565"/>
+            <a:gd name="connsiteX2" fmla="*/ 45118 w 340918"/>
+            <a:gd name="connsiteY2" fmla="*/ 80210 h 215565"/>
+            <a:gd name="connsiteX3" fmla="*/ 75197 w 340918"/>
+            <a:gd name="connsiteY3" fmla="*/ 35092 h 215565"/>
+            <a:gd name="connsiteX4" fmla="*/ 105276 w 340918"/>
+            <a:gd name="connsiteY4" fmla="*/ 20052 h 215565"/>
+            <a:gd name="connsiteX5" fmla="*/ 150395 w 340918"/>
+            <a:gd name="connsiteY5" fmla="*/ 10026 h 215565"/>
+            <a:gd name="connsiteX6" fmla="*/ 230605 w 340918"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 215565"/>
+            <a:gd name="connsiteX7" fmla="*/ 295776 w 340918"/>
+            <a:gd name="connsiteY7" fmla="*/ 5013 h 215565"/>
+            <a:gd name="connsiteX8" fmla="*/ 315829 w 340918"/>
+            <a:gd name="connsiteY8" fmla="*/ 40105 h 215565"/>
+            <a:gd name="connsiteX9" fmla="*/ 325855 w 340918"/>
+            <a:gd name="connsiteY9" fmla="*/ 65171 h 215565"/>
+            <a:gd name="connsiteX10" fmla="*/ 330868 w 340918"/>
+            <a:gd name="connsiteY10" fmla="*/ 165434 h 215565"/>
+            <a:gd name="connsiteX11" fmla="*/ 335881 w 340918"/>
+            <a:gd name="connsiteY11" fmla="*/ 180473 h 215565"/>
+            <a:gd name="connsiteX12" fmla="*/ 340895 w 340918"/>
+            <a:gd name="connsiteY12" fmla="*/ 215565 h 215565"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="340918" h="215565">
+              <a:moveTo>
+                <a:pt x="0" y="215565"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="5013" y="185486"/>
+                <a:pt x="5396" y="154258"/>
+                <a:pt x="15039" y="125329"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20755" y="108181"/>
+                <a:pt x="35818" y="95709"/>
+                <a:pt x="45118" y="80210"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="57293" y="59918"/>
+                <a:pt x="56048" y="47858"/>
+                <a:pt x="75197" y="35092"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="84524" y="28874"/>
+                <a:pt x="94868" y="24215"/>
+                <a:pt x="105276" y="20052"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="111713" y="17477"/>
+                <a:pt x="145634" y="10819"/>
+                <a:pt x="150395" y="10026"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="179008" y="5257"/>
+                <a:pt x="201224" y="3264"/>
+                <a:pt x="230605" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="252329" y="1671"/>
+                <a:pt x="274639" y="-271"/>
+                <a:pt x="295776" y="5013"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="312777" y="9263"/>
+                <a:pt x="311925" y="28394"/>
+                <a:pt x="315829" y="40105"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="318675" y="48642"/>
+                <a:pt x="322513" y="56816"/>
+                <a:pt x="325855" y="65171"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="327526" y="98592"/>
+                <a:pt x="327969" y="132097"/>
+                <a:pt x="330868" y="165434"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="331326" y="170698"/>
+                <a:pt x="334599" y="175347"/>
+                <a:pt x="335881" y="180473"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="341551" y="203149"/>
+                <a:pt x="340895" y="199241"/>
+                <a:pt x="340895" y="215565"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>20052</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>115302</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25066</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2594A8BF-1082-44A4-A5A7-0AF1DCF4A055}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4301289" y="3835066"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>135355</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>230605</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2EDE3E-BABC-479C-80C1-3BE4D42668CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4416592" y="3840079"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>300789</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>35092</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175461</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle: Rounded Corners 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F68FBA7A-BD04-4DD4-952A-A923F9F9C29B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3970421" y="4762500"/>
+          <a:ext cx="957513" cy="365961"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215566</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10026</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle: Rounded Corners 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F33102-D850-426C-9984-0821463A5860}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4496803" y="4381499"/>
+          <a:ext cx="406065" cy="746961"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396035</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>35092</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>5013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Freeform: Shape 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B745B85-78CF-4C70-9DA5-2C557F70CB86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4065667" y="4381500"/>
+          <a:ext cx="250662" cy="195513"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 20057 w 250662"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 195513"/>
+            <a:gd name="connsiteX1" fmla="*/ 4 w 250662"/>
+            <a:gd name="connsiteY1" fmla="*/ 60158 h 195513"/>
+            <a:gd name="connsiteX2" fmla="*/ 10030 w 250662"/>
+            <a:gd name="connsiteY2" fmla="*/ 115303 h 195513"/>
+            <a:gd name="connsiteX3" fmla="*/ 25070 w 250662"/>
+            <a:gd name="connsiteY3" fmla="*/ 135355 h 195513"/>
+            <a:gd name="connsiteX4" fmla="*/ 35096 w 250662"/>
+            <a:gd name="connsiteY4" fmla="*/ 150395 h 195513"/>
+            <a:gd name="connsiteX5" fmla="*/ 80215 w 250662"/>
+            <a:gd name="connsiteY5" fmla="*/ 180474 h 195513"/>
+            <a:gd name="connsiteX6" fmla="*/ 150399 w 250662"/>
+            <a:gd name="connsiteY6" fmla="*/ 195513 h 195513"/>
+            <a:gd name="connsiteX7" fmla="*/ 220583 w 250662"/>
+            <a:gd name="connsiteY7" fmla="*/ 190500 h 195513"/>
+            <a:gd name="connsiteX8" fmla="*/ 245649 w 250662"/>
+            <a:gd name="connsiteY8" fmla="*/ 155408 h 195513"/>
+            <a:gd name="connsiteX9" fmla="*/ 250662 w 250662"/>
+            <a:gd name="connsiteY9" fmla="*/ 10026 h 195513"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="250662" h="195513">
+              <a:moveTo>
+                <a:pt x="20057" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="13953" y="15260"/>
+                <a:pt x="1091" y="44939"/>
+                <a:pt x="4" y="60158"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-178" y="62706"/>
+                <a:pt x="5749" y="106741"/>
+                <a:pt x="10030" y="115303"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13767" y="122776"/>
+                <a:pt x="20214" y="128556"/>
+                <a:pt x="25070" y="135355"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28572" y="140258"/>
+                <a:pt x="30836" y="146135"/>
+                <a:pt x="35096" y="150395"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="41956" y="157255"/>
+                <a:pt x="72462" y="177492"/>
+                <a:pt x="80215" y="180474"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="99319" y="187822"/>
+                <a:pt x="129493" y="192029"/>
+                <a:pt x="150399" y="195513"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="173794" y="193842"/>
+                <a:pt x="197752" y="195872"/>
+                <a:pt x="220583" y="190500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="228995" y="188521"/>
+                <a:pt x="245007" y="162464"/>
+                <a:pt x="245649" y="155408"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="250039" y="107118"/>
+                <a:pt x="248991" y="58487"/>
+                <a:pt x="250662" y="10026"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290763</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>70428</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>10026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Freeform: Shape 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED1B554-32A5-4829-815A-98CB27696230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3960395" y="4963026"/>
+          <a:ext cx="391270" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 391270"/>
+            <a:gd name="connsiteY0" fmla="*/ 190500 h 190500"/>
+            <a:gd name="connsiteX1" fmla="*/ 65171 w 391270"/>
+            <a:gd name="connsiteY1" fmla="*/ 130342 h 190500"/>
+            <a:gd name="connsiteX2" fmla="*/ 110289 w 391270"/>
+            <a:gd name="connsiteY2" fmla="*/ 85224 h 190500"/>
+            <a:gd name="connsiteX3" fmla="*/ 160421 w 391270"/>
+            <a:gd name="connsiteY3" fmla="*/ 60158 h 190500"/>
+            <a:gd name="connsiteX4" fmla="*/ 190500 w 391270"/>
+            <a:gd name="connsiteY4" fmla="*/ 40106 h 190500"/>
+            <a:gd name="connsiteX5" fmla="*/ 215566 w 391270"/>
+            <a:gd name="connsiteY5" fmla="*/ 20053 h 190500"/>
+            <a:gd name="connsiteX6" fmla="*/ 270710 w 391270"/>
+            <a:gd name="connsiteY6" fmla="*/ 5013 h 190500"/>
+            <a:gd name="connsiteX7" fmla="*/ 290763 w 391270"/>
+            <a:gd name="connsiteY7" fmla="*/ 0 h 190500"/>
+            <a:gd name="connsiteX8" fmla="*/ 330868 w 391270"/>
+            <a:gd name="connsiteY8" fmla="*/ 5013 h 190500"/>
+            <a:gd name="connsiteX9" fmla="*/ 350921 w 391270"/>
+            <a:gd name="connsiteY9" fmla="*/ 30079 h 190500"/>
+            <a:gd name="connsiteX10" fmla="*/ 360947 w 391270"/>
+            <a:gd name="connsiteY10" fmla="*/ 45119 h 190500"/>
+            <a:gd name="connsiteX11" fmla="*/ 365960 w 391270"/>
+            <a:gd name="connsiteY11" fmla="*/ 65171 h 190500"/>
+            <a:gd name="connsiteX12" fmla="*/ 386013 w 391270"/>
+            <a:gd name="connsiteY12" fmla="*/ 115303 h 190500"/>
+            <a:gd name="connsiteX13" fmla="*/ 391026 w 391270"/>
+            <a:gd name="connsiteY13" fmla="*/ 180474 h 190500"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="391270" h="190500">
+              <a:moveTo>
+                <a:pt x="0" y="190500"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="74318" y="116185"/>
+                <a:pt x="-38986" y="228373"/>
+                <a:pt x="65171" y="130342"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="80659" y="115765"/>
+                <a:pt x="91266" y="94736"/>
+                <a:pt x="110289" y="85224"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="127000" y="76869"/>
+                <a:pt x="147210" y="73369"/>
+                <a:pt x="160421" y="60158"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="179197" y="41382"/>
+                <a:pt x="168734" y="47361"/>
+                <a:pt x="190500" y="40106"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="198835" y="31770"/>
+                <a:pt x="204180" y="25113"/>
+                <a:pt x="215566" y="20053"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="239037" y="9622"/>
+                <a:pt x="247125" y="10254"/>
+                <a:pt x="270710" y="5013"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="277436" y="3518"/>
+                <a:pt x="284079" y="1671"/>
+                <a:pt x="290763" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="304131" y="1671"/>
+                <a:pt x="317870" y="1468"/>
+                <a:pt x="330868" y="5013"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="350438" y="10351"/>
+                <a:pt x="343885" y="16007"/>
+                <a:pt x="350921" y="30079"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="353615" y="35468"/>
+                <a:pt x="357605" y="40106"/>
+                <a:pt x="360947" y="45119"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="362618" y="51803"/>
+                <a:pt x="363541" y="58720"/>
+                <a:pt x="365960" y="65171"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="375780" y="91356"/>
+                <a:pt x="380601" y="82830"/>
+                <a:pt x="386013" y="115303"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="392949" y="156920"/>
+                <a:pt x="391026" y="135217"/>
+                <a:pt x="391026" y="180474"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>310815</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>406065</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35092</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89A934B-2B59-4C85-A007-6E2ABB4BF259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8873289" y="3845092"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418097</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>513347</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27071</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE01227-1CD6-4E80-A736-D891B79B606E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8980571" y="3837071"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>576513</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>60158</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D5ABF9-7B00-48CB-8142-B9858DC7680C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9138987" y="3840079"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>302795</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>398045</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27071</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{236F0700-818C-40DD-84AC-8BE743422BA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9476874" y="3837071"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>550445</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>29076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>34090</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>29076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9B2719-E1E7-4287-8973-8D917876981E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9724524" y="3839076"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>350921</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>185487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>60158</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>185487</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle: Rounded Corners 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F058D7-F3FE-423C-9C57-1E7151EE3BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8913395" y="4376487"/>
+          <a:ext cx="320842" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>270710</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>70184</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle: Rounded Corners 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038F4368-C023-49F6-A20C-90CF38DF3C70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8833184" y="4561974"/>
+          <a:ext cx="1022684" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>451184</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>55145</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>175461</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle: Rounded Corners 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D4782F-FAA0-4D63-BA40-927C9648A0DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9013658" y="4602079"/>
+          <a:ext cx="215566" cy="335882"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>391026</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>65171</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle: Rounded Corners 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8D2925C-5AA9-4513-BA10-C774F64C2267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9565105" y="4978066"/>
+          <a:ext cx="285750" cy="195513"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>310816</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>406066</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9828252-C665-482A-88E1-E86CDBE798B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11931316" y="3835065"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>458203</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>17043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>553453</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>17043</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C091F710-C889-46E7-97B9-594BE96414A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12078703" y="3827043"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>109287</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>24062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>204537</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>24062</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB848D6D-2BB8-4EC8-A7C1-9CB116723573}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12341392" y="3834062"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>421105</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>20053</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>10026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle: Rounded Corners 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35BB90AF-B0F1-4DBF-9A92-5253FEF35501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12041605" y="4381500"/>
+          <a:ext cx="210553" cy="391026"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255671</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>20053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25065</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle: Rounded Corners 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15774EE-8D2F-44C5-A850-5A9C7D036870}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1478882" y="6116053"/>
+          <a:ext cx="380999" cy="350921"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>310816</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406066</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BD3A61-9564-4237-80B0-333C72FEDEF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3980448" y="5364079"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428124</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>37097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523374</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>37097</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1BFFEC-EDBD-4F69-B1C1-BA0F4811C5FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4097756" y="5371097"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99262</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>29076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194512</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>29076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07872549-3797-4026-8305-1CAF59840FDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4380499" y="5363076"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>356938</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>36094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>452188</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>36094</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688386F7-25DB-435B-A5CF-8A0F3555AC39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638175" y="5370094"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>386013</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45118</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>5013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle: Rounded Corners 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCB430B-6EF6-4B21-9F13-09374BE0B251}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4055645" y="6301539"/>
+          <a:ext cx="270710" cy="370974"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>5013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25067</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle: Rounded Corners 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51592875-D9A8-472A-AB13-5555F8E6045B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4050633" y="6482013"/>
+          <a:ext cx="867276" cy="185487"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>436144</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>185487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>65224</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Freeform: Shape 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE7B21D-AB50-4FCA-9198-3C364D157467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105776" y="5900487"/>
+          <a:ext cx="240685" cy="225592"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 240685"/>
+            <a:gd name="connsiteY0" fmla="*/ 20052 h 225592"/>
+            <a:gd name="connsiteX1" fmla="*/ 5013 w 240685"/>
+            <a:gd name="connsiteY1" fmla="*/ 105276 h 225592"/>
+            <a:gd name="connsiteX2" fmla="*/ 20053 w 240685"/>
+            <a:gd name="connsiteY2" fmla="*/ 155408 h 225592"/>
+            <a:gd name="connsiteX3" fmla="*/ 40106 w 240685"/>
+            <a:gd name="connsiteY3" fmla="*/ 190500 h 225592"/>
+            <a:gd name="connsiteX4" fmla="*/ 55145 w 240685"/>
+            <a:gd name="connsiteY4" fmla="*/ 200526 h 225592"/>
+            <a:gd name="connsiteX5" fmla="*/ 75198 w 240685"/>
+            <a:gd name="connsiteY5" fmla="*/ 215566 h 225592"/>
+            <a:gd name="connsiteX6" fmla="*/ 150395 w 240685"/>
+            <a:gd name="connsiteY6" fmla="*/ 225592 h 225592"/>
+            <a:gd name="connsiteX7" fmla="*/ 225592 w 240685"/>
+            <a:gd name="connsiteY7" fmla="*/ 190500 h 225592"/>
+            <a:gd name="connsiteX8" fmla="*/ 230606 w 240685"/>
+            <a:gd name="connsiteY8" fmla="*/ 170447 h 225592"/>
+            <a:gd name="connsiteX9" fmla="*/ 240632 w 240685"/>
+            <a:gd name="connsiteY9" fmla="*/ 0 h 225592"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="240685" h="225592">
+              <a:moveTo>
+                <a:pt x="0" y="20052"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1671" y="48460"/>
+                <a:pt x="2315" y="76947"/>
+                <a:pt x="5013" y="105276"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5936" y="114966"/>
+                <a:pt x="18056" y="150415"/>
+                <a:pt x="20053" y="155408"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="22675" y="161963"/>
+                <a:pt x="34076" y="184470"/>
+                <a:pt x="40106" y="190500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="44366" y="194760"/>
+                <a:pt x="50242" y="197024"/>
+                <a:pt x="55145" y="200526"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="61944" y="205383"/>
+                <a:pt x="67440" y="212463"/>
+                <a:pt x="75198" y="215566"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="83852" y="219028"/>
+                <a:pt x="149289" y="225469"/>
+                <a:pt x="150395" y="225592"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="192798" y="214991"/>
+                <a:pt x="208604" y="224474"/>
+                <a:pt x="225592" y="190500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="228673" y="184337"/>
+                <a:pt x="228935" y="177131"/>
+                <a:pt x="230606" y="170447"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="242020" y="33478"/>
+                <a:pt x="240632" y="90375"/>
+                <a:pt x="240632" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>275723</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>10026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>155408</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>35092</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Freeform: Shape 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6F14E9-6D6D-4619-B781-F688FA938606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3945355" y="6487026"/>
+          <a:ext cx="491290" cy="215566"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 446177"/>
+            <a:gd name="connsiteY0" fmla="*/ 211931 h 247023"/>
+            <a:gd name="connsiteX1" fmla="*/ 70184 w 446177"/>
+            <a:gd name="connsiteY1" fmla="*/ 111668 h 247023"/>
+            <a:gd name="connsiteX2" fmla="*/ 90237 w 446177"/>
+            <a:gd name="connsiteY2" fmla="*/ 76576 h 247023"/>
+            <a:gd name="connsiteX3" fmla="*/ 100263 w 446177"/>
+            <a:gd name="connsiteY3" fmla="*/ 46497 h 247023"/>
+            <a:gd name="connsiteX4" fmla="*/ 135356 w 446177"/>
+            <a:gd name="connsiteY4" fmla="*/ 6392 h 247023"/>
+            <a:gd name="connsiteX5" fmla="*/ 365961 w 446177"/>
+            <a:gd name="connsiteY5" fmla="*/ 26444 h 247023"/>
+            <a:gd name="connsiteX6" fmla="*/ 386013 w 446177"/>
+            <a:gd name="connsiteY6" fmla="*/ 41484 h 247023"/>
+            <a:gd name="connsiteX7" fmla="*/ 401053 w 446177"/>
+            <a:gd name="connsiteY7" fmla="*/ 61536 h 247023"/>
+            <a:gd name="connsiteX8" fmla="*/ 411079 w 446177"/>
+            <a:gd name="connsiteY8" fmla="*/ 71563 h 247023"/>
+            <a:gd name="connsiteX9" fmla="*/ 421106 w 446177"/>
+            <a:gd name="connsiteY9" fmla="*/ 96628 h 247023"/>
+            <a:gd name="connsiteX10" fmla="*/ 431132 w 446177"/>
+            <a:gd name="connsiteY10" fmla="*/ 126707 h 247023"/>
+            <a:gd name="connsiteX11" fmla="*/ 441158 w 446177"/>
+            <a:gd name="connsiteY11" fmla="*/ 221957 h 247023"/>
+            <a:gd name="connsiteX12" fmla="*/ 446171 w 446177"/>
+            <a:gd name="connsiteY12" fmla="*/ 247023 h 247023"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="446177" h="247023">
+              <a:moveTo>
+                <a:pt x="0" y="211931"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="49175" y="172590"/>
+                <a:pt x="19375" y="201560"/>
+                <a:pt x="70184" y="111668"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="76813" y="99939"/>
+                <a:pt x="85977" y="89357"/>
+                <a:pt x="90237" y="76576"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="93579" y="66550"/>
+                <a:pt x="95202" y="55775"/>
+                <a:pt x="100263" y="46497"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="107609" y="33030"/>
+                <a:pt x="124104" y="17643"/>
+                <a:pt x="135356" y="6392"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="293110" y="13729"/>
+                <a:pt x="296415" y="-23233"/>
+                <a:pt x="365961" y="26444"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="372760" y="31300"/>
+                <a:pt x="380105" y="35576"/>
+                <a:pt x="386013" y="41484"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="391921" y="47392"/>
+                <a:pt x="395704" y="55117"/>
+                <a:pt x="401053" y="61536"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="404079" y="65167"/>
+                <a:pt x="407737" y="68221"/>
+                <a:pt x="411079" y="71563"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="414421" y="79918"/>
+                <a:pt x="418031" y="88171"/>
+                <a:pt x="421106" y="96628"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="424718" y="106560"/>
+                <a:pt x="431132" y="126707"/>
+                <a:pt x="431132" y="126707"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="444591" y="207464"/>
+                <a:pt x="424939" y="84091"/>
+                <a:pt x="441158" y="221957"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="446576" y="268014"/>
+                <a:pt x="446171" y="229207"/>
+                <a:pt x="446171" y="247023"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320841</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>35092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>416091</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>35092</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6786E9ED-910E-4B55-A66C-0F1A168DEF61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6436894" y="5369092"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>77202</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>172452</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32084</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FABF7E7-00F7-4AA2-9986-8205D504B14A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6804860" y="5366084"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>369970</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>29076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>465220</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>29076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A34CF8-E9C3-4EE8-A05E-1C65EA1D3FA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7097628" y="5363076"/>
+          <a:ext cx="95250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>411078</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>5013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>40105</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle: Rounded Corners 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B6C31F-1053-402C-B159-1196F6016F6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6527131" y="6101013"/>
+          <a:ext cx="852237" cy="175461"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406065</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>5014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50132</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle: Rounded Corners 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3159D5-39C2-4CC5-9F21-FFFBC8D4CB6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6522118" y="6482014"/>
+          <a:ext cx="867277" cy="175460"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>471236</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>35092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15039</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>170447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle: Rounded Corners 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94A8749-1DA9-4F35-B70D-2AEF12D18547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6587289" y="6321592"/>
+          <a:ext cx="155408" cy="325855"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,10 +4036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CD4657-1F04-474B-AB20-B044A091607D}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -1274,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -1324,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>0</v>
       </c>
@@ -1371,11 +4911,454 @@
         <v>1</v>
       </c>
       <c r="U19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="F21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="J21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="N21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="F29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="J29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Lab3truthtables.xlsx
+++ b/Lab3truthtables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chapar\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C63208-E7DE-4F9F-A42D-51C186C93B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A63B8D3-FE0D-4561-BDF2-DD104A12DCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B865E0CC-345F-4404-96EC-E27D76AA4AF9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="44">
   <si>
     <t>Binary</t>
   </si>
@@ -164,13 +164,41 @@
   <si>
     <t>SOP=A B+A B+ A C</t>
   </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTE FOR THE FUTURE, HEXLIGHTS ARE ACTIVE LOW</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -192,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -254,11 +282,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -267,6 +306,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4039,7 +4080,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5210,6 +5251,14 @@
       <c r="L30" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="N30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
